--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1875.112972950466</v>
+        <v>194.7950950332234</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.486000061035156</v>
+        <v>0.5940001010894775</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.69225111188039</v>
+        <v>56.79509503322339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.051517215182435</v>
+        <v>2.171119526880084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.342239053760168</v>
+        <v>2.171119526880084</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1471.980000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.15</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,28 +601,6 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -918,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.361415491259855</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.81299701176106</v>
+        <v>24.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -950,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21.87190877779048</v>
       </c>
     </row>
     <row r="8">
@@ -988,7 +966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +998,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,99 +1012,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1240,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1251,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1262,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1273,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000066</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2600000000002</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1295,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8650000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1306,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>107.7250000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1317,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9600000000008</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1328,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1339,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0600000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1350,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999994</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1372,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1383,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999989</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1394,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1416,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1427,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1438,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -1449,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>130.08</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1460,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>136.1750000000018</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1471,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>138.0800000000002</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1482,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>143.2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1493,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>140.3750000000015</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1504,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.2600000000002</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -1515,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>109.8650000000016</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1526,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>107.7250000000004</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -1537,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.9600000000009</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1548,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>110.95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -1559,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0600000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1570,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999994</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -1581,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1592,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1603,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999989</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -1614,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>130.08</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -1625,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>136.1750000000018</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -1636,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>138.0800000000002</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -1647,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>143.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -1658,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>140.3750000000015</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.260000000000218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.865000000001601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1727,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.725000000000364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1738,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.96000000000095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1760,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1771,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1782,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999997</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1793,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999934</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1804,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1815,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>30.07999999999998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1826,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>36.17500000000183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1837,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>38.08000000000021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1848,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>43.19999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1859,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>40.37500000000153</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1917,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1928,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1950,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1961,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1972,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1983,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1994,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2005,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2184,7 +2078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,10 +2105,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2222,10 +2116,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2233,10 +2127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2244,10 +2138,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2255,10 +2149,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2266,10 +2160,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2277,144 +2171,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
